--- a/data/pca/factorExposure/factorExposure_2015-12-29.xlsx
+++ b/data/pca/factorExposure/factorExposure_2015-12-29.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,52 +717,100 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>0.01573297482099975</v>
+        <v>0.01683287480522299</v>
       </c>
       <c r="C2">
-        <v>-0.0307557421270056</v>
+        <v>-0.0313166726130542</v>
       </c>
       <c r="D2">
-        <v>-0.08671775426678328</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.1133958077134493</v>
+      </c>
+      <c r="E2">
+        <v>0.0781030691284198</v>
+      </c>
+      <c r="F2">
+        <v>-0.008992036090018056</v>
+      </c>
+      <c r="G2">
+        <v>0.04964124560313723</v>
+      </c>
+      <c r="H2">
+        <v>-0.0991865987642505</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
-        <v>0.0154039030506831</v>
+        <v>0.009110210733852361</v>
       </c>
       <c r="C3">
-        <v>-0.05665622875840224</v>
+        <v>-0.03594538661723948</v>
       </c>
       <c r="D3">
-        <v>-0.1361029638057245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>-0.08023969390065336</v>
+      </c>
+      <c r="E3">
+        <v>0.08205573641126557</v>
+      </c>
+      <c r="F3">
+        <v>-0.04214303116806024</v>
+      </c>
+      <c r="G3">
+        <v>0.08443690773599448</v>
+      </c>
+      <c r="H3">
+        <v>-0.03514138797692787</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>0.04709186837165263</v>
+        <v>0.05348795144240664</v>
       </c>
       <c r="C4">
-        <v>-0.03088551062023846</v>
+        <v>-0.06183341474816829</v>
       </c>
       <c r="D4">
-        <v>-0.1230994381643624</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.1382560267776354</v>
+      </c>
+      <c r="E4">
+        <v>0.06339977050108438</v>
+      </c>
+      <c r="F4">
+        <v>-0.0191215927251592</v>
+      </c>
+      <c r="G4">
+        <v>-0.02396200898416481</v>
+      </c>
+      <c r="H4">
+        <v>0.02812424113240946</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>0.04351700760194768</v>
+        <v>0.0409685957146431</v>
       </c>
       <c r="C6">
-        <v>-0.004776699798151504</v>
+        <v>-0.02577514629477775</v>
       </c>
       <c r="D6">
-        <v>-0.1277355087254172</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.1278394184879032</v>
+      </c>
+      <c r="E6">
+        <v>0.04013226121562825</v>
+      </c>
+      <c r="F6">
+        <v>-0.0158280514590119</v>
+      </c>
+      <c r="G6">
+        <v>0.01596812076631623</v>
+      </c>
+      <c r="H6">
+        <v>-0.008060698336177357</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>0.02060596324469156</v>
+        <v>0.01542059698932684</v>
       </c>
       <c r="C7">
-        <v>-0.01013799051157789</v>
+        <v>-0.02878460550675865</v>
       </c>
       <c r="D7">
-        <v>-0.08729274331754454</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.09061001978737739</v>
+      </c>
+      <c r="E7">
+        <v>0.04324153908574499</v>
+      </c>
+      <c r="F7">
+        <v>-0.01430340451278782</v>
+      </c>
+      <c r="G7">
+        <v>-0.02181642062159939</v>
+      </c>
+      <c r="H7">
+        <v>-0.1028362584151768</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>0.009446072936942201</v>
+        <v>0.008255377117821584</v>
       </c>
       <c r="C8">
-        <v>-0.02875718411439476</v>
+        <v>-0.03697703859096504</v>
       </c>
       <c r="D8">
-        <v>-0.06325053886406592</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.07583514602566324</v>
+      </c>
+      <c r="E8">
+        <v>0.04302854853644136</v>
+      </c>
+      <c r="F8">
+        <v>-0.03078236054062736</v>
+      </c>
+      <c r="G8">
+        <v>0.008553354128178276</v>
+      </c>
+      <c r="H8">
+        <v>-0.03631403841464775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>0.03875174510695333</v>
+        <v>0.04104676392674298</v>
       </c>
       <c r="C9">
-        <v>-0.0315366096314329</v>
+        <v>-0.05662527663396962</v>
       </c>
       <c r="D9">
-        <v>-0.1057107524354296</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.1173268924436445</v>
+      </c>
+      <c r="E9">
+        <v>0.04521088608895636</v>
+      </c>
+      <c r="F9">
+        <v>0.0008606772199292065</v>
+      </c>
+      <c r="G9">
+        <v>-0.01911766881986815</v>
+      </c>
+      <c r="H9">
+        <v>-0.006926137321972629</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>0.09901454188761601</v>
+        <v>0.133389152799262</v>
       </c>
       <c r="C10">
-        <v>0.1930078330005378</v>
+        <v>0.191534274244671</v>
       </c>
       <c r="D10">
-        <v>0.006708166232215199</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.004296803715928586</v>
+      </c>
+      <c r="E10">
+        <v>0.0518460083260928</v>
+      </c>
+      <c r="F10">
+        <v>-0.01439121808666234</v>
+      </c>
+      <c r="G10">
+        <v>-0.03906595543801668</v>
+      </c>
+      <c r="H10">
+        <v>0.009129666228337394</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>0.03282528117961404</v>
+        <v>0.02856506251389485</v>
       </c>
       <c r="C11">
-        <v>-0.03595159622609965</v>
+        <v>-0.04195706779710563</v>
       </c>
       <c r="D11">
-        <v>-0.05902605795093788</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.05806909603911857</v>
+      </c>
+      <c r="E11">
+        <v>0.005679589710908104</v>
+      </c>
+      <c r="F11">
+        <v>-0.005959659565176254</v>
+      </c>
+      <c r="G11">
+        <v>-0.005551172539131716</v>
+      </c>
+      <c r="H11">
+        <v>-0.05063829489427941</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>0.03662891209620546</v>
+        <v>0.03246405292345783</v>
       </c>
       <c r="C12">
-        <v>-0.03873978539744447</v>
+        <v>-0.04386712519910239</v>
       </c>
       <c r="D12">
-        <v>-0.05821320280135556</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.05644685046078552</v>
+      </c>
+      <c r="E12">
+        <v>0.01618145927541556</v>
+      </c>
+      <c r="F12">
+        <v>-0.001051266601915512</v>
+      </c>
+      <c r="G12">
+        <v>-0.008684599044709146</v>
+      </c>
+      <c r="H12">
+        <v>-0.06348538086606306</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>0.01324644386574292</v>
+        <v>0.01869640222833359</v>
       </c>
       <c r="C13">
-        <v>-0.02492758833137385</v>
+        <v>-0.0371311144052227</v>
       </c>
       <c r="D13">
-        <v>-0.1181855305027812</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.1392016754180529</v>
+      </c>
+      <c r="E13">
+        <v>0.0731449139665592</v>
+      </c>
+      <c r="F13">
+        <v>-0.02747010278609777</v>
+      </c>
+      <c r="G13">
+        <v>-0.002926685917241929</v>
+      </c>
+      <c r="H13">
+        <v>-0.09407832658586886</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>0.009334646457448897</v>
+        <v>0.007252900202573297</v>
       </c>
       <c r="C14">
-        <v>-0.01683367039646827</v>
+        <v>-0.02298111617680065</v>
       </c>
       <c r="D14">
-        <v>-0.07901451778044968</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.08311238194205882</v>
+      </c>
+      <c r="E14">
+        <v>0.04107119920653361</v>
+      </c>
+      <c r="F14">
+        <v>0.01270558048830544</v>
+      </c>
+      <c r="G14">
+        <v>-0.003707610513349691</v>
+      </c>
+      <c r="H14">
+        <v>-0.09909977462666979</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>0</v>
+        <v>0.001426970279457287</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>-0.00879592725881159</v>
       </c>
       <c r="D15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.02775240719768123</v>
+      </c>
+      <c r="E15">
+        <v>0.007192034093659343</v>
+      </c>
+      <c r="F15">
+        <v>0.002702337073800125</v>
+      </c>
+      <c r="G15">
+        <v>0.007231393378005981</v>
+      </c>
+      <c r="H15">
+        <v>-0.01219206769363952</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>0.03449374255699867</v>
+        <v>0.0293570239507149</v>
       </c>
       <c r="C16">
-        <v>-0.03795740806921512</v>
+        <v>-0.04245318957087008</v>
       </c>
       <c r="D16">
-        <v>-0.06403563200762928</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06002230528189902</v>
+      </c>
+      <c r="E16">
+        <v>0.01990678983195492</v>
+      </c>
+      <c r="F16">
+        <v>0.006798536059739351</v>
+      </c>
+      <c r="G16">
+        <v>-0.0008727431749435422</v>
+      </c>
+      <c r="H16">
+        <v>-0.05861846329263516</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,122 +1159,230 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
-        <v>0.008919676356863946</v>
+        <v>0.01078062076799966</v>
       </c>
       <c r="C19">
-        <v>-0.01641909445055153</v>
+        <v>-0.02045704986962354</v>
       </c>
       <c r="D19">
-        <v>-0.1660698639522755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4">
+        <v>-0.1287065845682786</v>
+      </c>
+      <c r="E19">
+        <v>0.07191538032942804</v>
+      </c>
+      <c r="F19">
+        <v>0.02499868708324985</v>
+      </c>
+      <c r="G19">
+        <v>0.01547671767257517</v>
+      </c>
+      <c r="H19">
+        <v>-0.05535472045733462</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>0.01827756583338414</v>
+        <v>0.01586636721223047</v>
       </c>
       <c r="C20">
-        <v>-0.0165105944406513</v>
+        <v>-0.03125825082217582</v>
       </c>
       <c r="D20">
-        <v>-0.08231697220717578</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.09381896481604153</v>
+      </c>
+      <c r="E20">
+        <v>0.06166870002144578</v>
+      </c>
+      <c r="F20">
+        <v>0.007054892386863073</v>
+      </c>
+      <c r="G20">
+        <v>-0.004384323786223772</v>
+      </c>
+      <c r="H20">
+        <v>-0.05466099436371639</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>0.007457769481312</v>
+        <v>0.01412877738377826</v>
       </c>
       <c r="C21">
-        <v>-0.02187184606394208</v>
+        <v>-0.03510517265040076</v>
       </c>
       <c r="D21">
-        <v>-0.1214447865827343</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.1345492486387564</v>
+      </c>
+      <c r="E21">
+        <v>0.09810751435105812</v>
+      </c>
+      <c r="F21">
+        <v>0.01213409184817609</v>
+      </c>
+      <c r="G21">
+        <v>-0.04234182158763469</v>
+      </c>
+      <c r="H21">
+        <v>-0.1054902497034455</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>0.001872695966579509</v>
+        <v>0.005187781155819986</v>
       </c>
       <c r="C22">
-        <v>-0.02172165285790741</v>
+        <v>-0.03859113834262626</v>
       </c>
       <c r="D22">
-        <v>-0.07227109315006552</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1249377932829903</v>
+      </c>
+      <c r="E22">
+        <v>0.03278252165592269</v>
+      </c>
+      <c r="F22">
+        <v>-0.0772580276830908</v>
+      </c>
+      <c r="G22">
+        <v>0.06105993766853494</v>
+      </c>
+      <c r="H22">
+        <v>0.01924388281538747</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>0.001906656947685472</v>
+        <v>0.005283088871898978</v>
       </c>
       <c r="C23">
-        <v>-0.02171318404605733</v>
+        <v>-0.03903578543667237</v>
       </c>
       <c r="D23">
-        <v>-0.07174025495949669</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1244022140800853</v>
+      </c>
+      <c r="E23">
+        <v>0.03300165822771369</v>
+      </c>
+      <c r="F23">
+        <v>-0.07715913891124973</v>
+      </c>
+      <c r="G23">
+        <v>0.06020024471309408</v>
+      </c>
+      <c r="H23">
+        <v>0.01954721694656494</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>0.03351127134534347</v>
+        <v>0.03103038960005432</v>
       </c>
       <c r="C24">
-        <v>-0.04158758619650172</v>
+        <v>-0.05246796038761119</v>
       </c>
       <c r="D24">
-        <v>-0.0665083685039255</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06492398037987172</v>
+      </c>
+      <c r="E24">
+        <v>0.02266888317877085</v>
+      </c>
+      <c r="F24">
+        <v>0.004498931506602714</v>
+      </c>
+      <c r="G24">
+        <v>-0.01232465010576452</v>
+      </c>
+      <c r="H24">
+        <v>-0.06780973257450197</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>0.04046392866807071</v>
+        <v>0.03581531232149714</v>
       </c>
       <c r="C25">
-        <v>-0.04652499108394412</v>
+        <v>-0.05198747625925143</v>
       </c>
       <c r="D25">
-        <v>-0.06663268442760834</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.06104836279840471</v>
+      </c>
+      <c r="E25">
+        <v>0.02340361882104181</v>
+      </c>
+      <c r="F25">
+        <v>-0.006165655336430116</v>
+      </c>
+      <c r="G25">
+        <v>-0.01811453226521703</v>
+      </c>
+      <c r="H25">
+        <v>-0.05401811878192756</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>0.02224105383462544</v>
+        <v>0.02065581032145145</v>
       </c>
       <c r="C26">
-        <v>-0.001222278481439371</v>
+        <v>-0.01628049620588409</v>
       </c>
       <c r="D26">
-        <v>-0.05153544846172076</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.06397611817832798</v>
+      </c>
+      <c r="E26">
+        <v>0.0319541071686298</v>
+      </c>
+      <c r="F26">
+        <v>0.005784193443537393</v>
+      </c>
+      <c r="G26">
+        <v>0.002736667103991662</v>
+      </c>
+      <c r="H26">
+        <v>-0.05560063792867491</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>0.1368363481473413</v>
+        <v>0.1879171903030234</v>
       </c>
       <c r="C28">
-        <v>0.2732910100129276</v>
+        <v>0.2579812864155692</v>
       </c>
       <c r="D28">
-        <v>0.0513466020842411</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.01927001164537311</v>
+      </c>
+      <c r="E28">
+        <v>0.07504475712238956</v>
+      </c>
+      <c r="F28">
+        <v>0.004436193391499876</v>
+      </c>
+      <c r="G28">
+        <v>-0.07651287514895963</v>
+      </c>
+      <c r="H28">
+        <v>-0.001960814505632463</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>0.002972814106863864</v>
+        <v>0.006255218205157463</v>
       </c>
       <c r="C29">
-        <v>-0.01559984150980212</v>
+        <v>-0.02217967697848361</v>
       </c>
       <c r="D29">
-        <v>-0.06200738301141336</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.07737603544241924</v>
+      </c>
+      <c r="E29">
+        <v>0.04385055064374842</v>
+      </c>
+      <c r="F29">
+        <v>-0.0005539369027434136</v>
+      </c>
+      <c r="G29">
+        <v>-0.02088077884617213</v>
+      </c>
+      <c r="H29">
+        <v>-0.09880521906065258</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>0.04123554692495171</v>
+        <v>0.0433092541698681</v>
       </c>
       <c r="C30">
-        <v>-0.03016910474441064</v>
+        <v>-0.055784173928367</v>
       </c>
       <c r="D30">
-        <v>-0.1613922835759306</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.1743777528992117</v>
+      </c>
+      <c r="E30">
+        <v>0.03172550811725926</v>
+      </c>
+      <c r="F30">
+        <v>-0.006019709171965319</v>
+      </c>
+      <c r="G30">
+        <v>0.03930274488581886</v>
+      </c>
+      <c r="H30">
+        <v>-0.01352586585291581</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>0.06534590534002005</v>
+        <v>0.05669096322414068</v>
       </c>
       <c r="C31">
-        <v>-0.05039772750487104</v>
+        <v>-0.07142938700572364</v>
       </c>
       <c r="D31">
-        <v>-0.06133745714050621</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.05258459390308129</v>
+      </c>
+      <c r="E31">
+        <v>0.0409648461381206</v>
+      </c>
+      <c r="F31">
+        <v>-0.0427615768067808</v>
+      </c>
+      <c r="G31">
+        <v>-0.009277546057055892</v>
+      </c>
+      <c r="H31">
+        <v>-0.03058568113072831</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.001579162917403657</v>
+        <v>0.009204307859676512</v>
       </c>
       <c r="C32">
-        <v>6.94347246652659e-05</v>
+        <v>-0.01358495945691023</v>
       </c>
       <c r="D32">
-        <v>-0.05322530879391892</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.09004968489669531</v>
+      </c>
+      <c r="E32">
+        <v>0.09396110453279917</v>
+      </c>
+      <c r="F32">
+        <v>0.005920741436263696</v>
+      </c>
+      <c r="G32">
+        <v>-0.05783837809852394</v>
+      </c>
+      <c r="H32">
+        <v>-0.08927557146740707</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>0.02485346056480255</v>
+        <v>0.02442409947563816</v>
       </c>
       <c r="C33">
-        <v>-0.02054425226592424</v>
+        <v>-0.04022764503214339</v>
       </c>
       <c r="D33">
-        <v>-0.1301532321211266</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1314140114223852</v>
+      </c>
+      <c r="E33">
+        <v>0.05840992329960544</v>
+      </c>
+      <c r="F33">
+        <v>-0.01644388955263333</v>
+      </c>
+      <c r="G33">
+        <v>-0.00326985580091577</v>
+      </c>
+      <c r="H33">
+        <v>-0.06277242049322647</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>0.03026527134968802</v>
+        <v>0.02849435672727018</v>
       </c>
       <c r="C34">
-        <v>-0.05508405615771921</v>
+        <v>-0.06005685115536982</v>
       </c>
       <c r="D34">
-        <v>-0.06688778042005217</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.05962414180059238</v>
+      </c>
+      <c r="E34">
+        <v>0.004794299070064755</v>
+      </c>
+      <c r="F34">
+        <v>0.004306300621199663</v>
+      </c>
+      <c r="G34">
+        <v>-0.01500869654103693</v>
+      </c>
+      <c r="H34">
+        <v>-0.07415620740346086</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>0</v>
+        <v>0.0006878337521382473</v>
       </c>
       <c r="C35">
-        <v>0</v>
+        <v>-0.0002186463252040841</v>
       </c>
       <c r="D35">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.003234905214194508</v>
+      </c>
+      <c r="E35">
+        <v>0.0006984616479603743</v>
+      </c>
+      <c r="F35">
+        <v>0.0003960308235116957</v>
+      </c>
+      <c r="G35">
+        <v>-0.0001707301598238447</v>
+      </c>
+      <c r="H35">
+        <v>-0.002700334339602684</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>0.01994472275626583</v>
+        <v>0.01855368544271211</v>
       </c>
       <c r="C36">
-        <v>0.000325425550464224</v>
+        <v>-0.01423701049716097</v>
       </c>
       <c r="D36">
-        <v>-0.07003841877903499</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.07629172464581034</v>
+      </c>
+      <c r="E36">
+        <v>0.0407252842177785</v>
+      </c>
+      <c r="F36">
+        <v>0.004810888528945031</v>
+      </c>
+      <c r="G36">
+        <v>-0.01349568404404327</v>
+      </c>
+      <c r="H36">
+        <v>-0.05082014919547569</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>0.02626361483388394</v>
+        <v>0.02204377927904672</v>
       </c>
       <c r="C38">
-        <v>-0.01571481527134973</v>
+        <v>-0.02087371963086612</v>
       </c>
       <c r="D38">
-        <v>-0.05455334084922795</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.06025570221465374</v>
+      </c>
+      <c r="E38">
+        <v>0.04647613235934119</v>
+      </c>
+      <c r="F38">
+        <v>0.004067018497368896</v>
+      </c>
+      <c r="G38">
+        <v>0.03487801221103749</v>
+      </c>
+      <c r="H38">
+        <v>-0.04000408423841789</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>0.03896288741064019</v>
+        <v>0.03669714210125819</v>
       </c>
       <c r="C39">
-        <v>-0.05047231545553951</v>
+        <v>-0.06214527628802469</v>
       </c>
       <c r="D39">
-        <v>-0.08964566514927</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.1018913949125158</v>
+      </c>
+      <c r="E39">
+        <v>0.02021112400244013</v>
+      </c>
+      <c r="F39">
+        <v>0.02186423213640601</v>
+      </c>
+      <c r="G39">
+        <v>0.0006351910472238584</v>
+      </c>
+      <c r="H39">
+        <v>-0.08616942997598523</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>0.01521974907252317</v>
+        <v>0.0143462953950186</v>
       </c>
       <c r="C40">
-        <v>-0.04005724265198016</v>
+        <v>-0.03593452713867913</v>
       </c>
       <c r="D40">
-        <v>-0.07503655963109329</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.08382744788982818</v>
+      </c>
+      <c r="E40">
+        <v>0.07946363587435311</v>
+      </c>
+      <c r="F40">
+        <v>-0.05149287422503355</v>
+      </c>
+      <c r="G40">
+        <v>0.02027178567330431</v>
+      </c>
+      <c r="H40">
+        <v>-0.1605610215509485</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>0.02521269692112327</v>
+        <v>0.02310713815526178</v>
       </c>
       <c r="C41">
-        <v>0.008974784648479546</v>
+        <v>-0.007508081570086471</v>
       </c>
       <c r="D41">
-        <v>-0.06709330057602016</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.05689458393705778</v>
+      </c>
+      <c r="E41">
+        <v>0.05603815996243935</v>
+      </c>
+      <c r="F41">
+        <v>0.001669707760190321</v>
+      </c>
+      <c r="G41">
+        <v>0.004422447052418499</v>
+      </c>
+      <c r="H41">
+        <v>-0.04334954022635655</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>0.03477778377255406</v>
+        <v>0.02541451485925032</v>
       </c>
       <c r="C43">
-        <v>-0.001525572865495424</v>
+        <v>-0.0177013755187521</v>
       </c>
       <c r="D43">
-        <v>-0.1045442851050612</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.08758090028581213</v>
+      </c>
+      <c r="E43">
+        <v>0.04340738334002521</v>
+      </c>
+      <c r="F43">
+        <v>-0.004720077384431878</v>
+      </c>
+      <c r="G43">
+        <v>0.007101921323178087</v>
+      </c>
+      <c r="H43">
+        <v>-0.0620201302712229</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>0.01175765284497679</v>
+        <v>0.01680598182552182</v>
       </c>
       <c r="C44">
-        <v>-0.03629047789419798</v>
+        <v>-0.04048482020491872</v>
       </c>
       <c r="D44">
-        <v>-0.0838226822080308</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09449790288000787</v>
+      </c>
+      <c r="E44">
+        <v>0.0779629560462278</v>
+      </c>
+      <c r="F44">
+        <v>0.002210739024826465</v>
+      </c>
+      <c r="G44">
+        <v>-0.01527839568077242</v>
+      </c>
+      <c r="H44">
+        <v>-0.07107794417571837</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,52 +1861,100 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>0.01835971371325109</v>
+        <v>0.01612279686586547</v>
       </c>
       <c r="C46">
-        <v>-0.01568684782022978</v>
+        <v>-0.02911831311068791</v>
       </c>
       <c r="D46">
-        <v>-0.07077196051012087</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.08589958488828556</v>
+      </c>
+      <c r="E46">
+        <v>0.04567844265795588</v>
+      </c>
+      <c r="F46">
+        <v>0.02208439308323465</v>
+      </c>
+      <c r="G46">
+        <v>-0.02893929649013387</v>
+      </c>
+      <c r="H46">
+        <v>-0.09806975111255299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>0.09187962329802607</v>
+        <v>0.08586697752121072</v>
       </c>
       <c r="C47">
-        <v>-0.06779289207813632</v>
+        <v>-0.08817606019613933</v>
       </c>
       <c r="D47">
-        <v>-0.03971837567068621</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.03353077856516457</v>
+      </c>
+      <c r="E47">
+        <v>0.03933695284969776</v>
+      </c>
+      <c r="F47">
+        <v>-0.02389601268316813</v>
+      </c>
+      <c r="G47">
+        <v>-0.05778469133178246</v>
+      </c>
+      <c r="H47">
+        <v>-0.007226468642805403</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>0.02012428011394849</v>
+        <v>0.01937874251218455</v>
       </c>
       <c r="C48">
-        <v>-0.004781471546802455</v>
+        <v>-0.01806774814372662</v>
       </c>
       <c r="D48">
-        <v>-0.06935503797181357</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.07745819053427659</v>
+      </c>
+      <c r="E48">
+        <v>0.05548189738726577</v>
+      </c>
+      <c r="F48">
+        <v>0.0145062355388699</v>
+      </c>
+      <c r="G48">
+        <v>-0.00932479769965493</v>
+      </c>
+      <c r="H48">
+        <v>-0.05177995860484055</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1377,38 +1965,74 @@
       <c r="D49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
+      <c r="E49">
+        <v>0</v>
+      </c>
+      <c r="F49">
+        <v>0</v>
+      </c>
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>0.0763623139737462</v>
+        <v>0.06121296337873626</v>
       </c>
       <c r="C50">
-        <v>-0.0630693388224759</v>
+        <v>-0.06956123744369809</v>
       </c>
       <c r="D50">
-        <v>-0.06722928394191155</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.05886406745625855</v>
+      </c>
+      <c r="E50">
+        <v>0.04839265902649154</v>
+      </c>
+      <c r="F50">
+        <v>-0.04380994634876476</v>
+      </c>
+      <c r="G50">
+        <v>0.008613120064930599</v>
+      </c>
+      <c r="H50">
+        <v>-0.03520630789569654</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>0.007809039953248159</v>
+        <v>0.007492984923228197</v>
       </c>
       <c r="C51">
-        <v>-0.01212936709103489</v>
+        <v>-0.01481794054516303</v>
       </c>
       <c r="D51">
-        <v>-0.07543876282124048</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.08655315249486312</v>
+      </c>
+      <c r="E51">
+        <v>0.03346051160217988</v>
+      </c>
+      <c r="F51">
+        <v>0.003678872800270829</v>
+      </c>
+      <c r="G51">
+        <v>0.008938234282275049</v>
+      </c>
+      <c r="H51">
+        <v>-0.07691163941591331</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>0.0745273968874738</v>
+        <v>0.08673305708392645</v>
       </c>
       <c r="C53">
-        <v>-0.08772659186798121</v>
+        <v>-0.0999325453589117</v>
       </c>
       <c r="D53">
-        <v>-0.01796815012230172</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.004574921125768007</v>
+      </c>
+      <c r="E53">
+        <v>0.09951516868710686</v>
+      </c>
+      <c r="F53">
+        <v>-0.02898065597453239</v>
+      </c>
+      <c r="G53">
+        <v>-0.09478418804887291</v>
+      </c>
+      <c r="H53">
+        <v>0.02670088418057919</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>0.03305880018669387</v>
+        <v>0.02756355125367452</v>
       </c>
       <c r="C54">
-        <v>-0.0268238946793328</v>
+        <v>-0.03420214954477394</v>
       </c>
       <c r="D54">
-        <v>-0.0843538905767679</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.08612987515750495</v>
+      </c>
+      <c r="E54">
+        <v>0.04644191436796037</v>
+      </c>
+      <c r="F54">
+        <v>0.01862120698890788</v>
+      </c>
+      <c r="G54">
+        <v>-0.0007513677163971368</v>
+      </c>
+      <c r="H54">
+        <v>-0.108045721013277</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>0.08512366147115109</v>
+        <v>0.08451153772930564</v>
       </c>
       <c r="C55">
-        <v>-0.06726572708498289</v>
+        <v>-0.08124099353094863</v>
       </c>
       <c r="D55">
-        <v>0.001425896016743224</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>0.01232441288843374</v>
+      </c>
+      <c r="E55">
+        <v>0.05910105602319446</v>
+      </c>
+      <c r="F55">
+        <v>-0.03206864818249414</v>
+      </c>
+      <c r="G55">
+        <v>-0.04413255597411403</v>
+      </c>
+      <c r="H55">
+        <v>0.02450454028280549</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>0.1336552670137994</v>
+        <v>0.1326493425064163</v>
       </c>
       <c r="C56">
-        <v>-0.1036543019872945</v>
+        <v>-0.1249674278699147</v>
       </c>
       <c r="D56">
-        <v>-0.004800413205434279</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.01338400034542569</v>
+      </c>
+      <c r="E56">
+        <v>0.06099007566004037</v>
+      </c>
+      <c r="F56">
+        <v>-0.01802434168785892</v>
+      </c>
+      <c r="G56">
+        <v>-0.06392508493878281</v>
+      </c>
+      <c r="H56">
+        <v>0.0236566838966046</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,66 +2173,126 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>0.03713850496356121</v>
+        <v>0.03786422485350129</v>
       </c>
       <c r="C58">
-        <v>0.02807576627240614</v>
+        <v>-0.01721658712452732</v>
       </c>
       <c r="D58">
-        <v>-0.3929422292367896</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.3788914172197317</v>
+      </c>
+      <c r="E58">
+        <v>0.2235560008309065</v>
+      </c>
+      <c r="F58">
+        <v>-0.1335179591122448</v>
+      </c>
+      <c r="G58">
+        <v>0.4103020369447418</v>
+      </c>
+      <c r="H58">
+        <v>0.3956010970008885</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>0.139608148412814</v>
+        <v>0.1706602683146489</v>
       </c>
       <c r="C59">
-        <v>0.1932535740298568</v>
+        <v>0.17356819941391</v>
       </c>
       <c r="D59">
-        <v>-0.01285709965633861</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>-0.04558160252085346</v>
+      </c>
+      <c r="E59">
+        <v>0.02026349030381229</v>
+      </c>
+      <c r="F59">
+        <v>0.03518858685369461</v>
+      </c>
+      <c r="G59">
+        <v>0.003461707995538058</v>
+      </c>
+      <c r="H59">
+        <v>0.02155453619246145</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>0.2589784893028879</v>
+        <v>0.2347913964983729</v>
       </c>
       <c r="C60">
-        <v>-0.05877612990439091</v>
+        <v>-0.0928934030578491</v>
       </c>
       <c r="D60">
-        <v>-0.1614205678325511</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.1231111765871975</v>
+      </c>
+      <c r="E60">
+        <v>-0.3537237767271776</v>
+      </c>
+      <c r="F60">
+        <v>-0.07703306596939415</v>
+      </c>
+      <c r="G60">
+        <v>-0.01951760622711096</v>
+      </c>
+      <c r="H60">
+        <v>0.06166178015426899</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>0.04494406681846417</v>
+        <v>0.04168145475447567</v>
       </c>
       <c r="C61">
-        <v>-0.04858285137483828</v>
+        <v>-0.05759623256628706</v>
       </c>
       <c r="D61">
-        <v>-0.0992280037337504</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.09469757077939164</v>
+      </c>
+      <c r="E61">
+        <v>0.0186314882749749</v>
+      </c>
+      <c r="F61">
+        <v>0.01023438437639854</v>
+      </c>
+      <c r="G61">
+        <v>-0.01818186789583546</v>
+      </c>
+      <c r="H61">
+        <v>-0.07666564172511164</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1559,108 +2303,204 @@
       <c r="D62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:4">
+      <c r="E62">
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>0.0153478359327002</v>
+        <v>0.01562216685446314</v>
       </c>
       <c r="C63">
-        <v>-0.01510326448553806</v>
+        <v>-0.03034119610388882</v>
       </c>
       <c r="D63">
-        <v>-0.06026175864099643</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.07030871055460661</v>
+      </c>
+      <c r="E63">
+        <v>0.05107471698167849</v>
+      </c>
+      <c r="F63">
+        <v>-0.02429316444033405</v>
+      </c>
+      <c r="G63">
+        <v>0.00780890520636318</v>
+      </c>
+      <c r="H63">
+        <v>-0.04507609406846469</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>0.05481059578204701</v>
+        <v>0.05499152145285262</v>
       </c>
       <c r="C64">
-        <v>-0.05778331800185058</v>
+        <v>-0.07677715796364822</v>
       </c>
       <c r="D64">
-        <v>-0.05869282247615056</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.0547693597895229</v>
+      </c>
+      <c r="E64">
+        <v>0.03633369775906043</v>
+      </c>
+      <c r="F64">
+        <v>0.0194017247312068</v>
+      </c>
+      <c r="G64">
+        <v>-0.04734234785367883</v>
+      </c>
+      <c r="H64">
+        <v>-0.0444163675566038</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>0.06110392270848332</v>
+        <v>0.05252969640334535</v>
       </c>
       <c r="C65">
-        <v>-0.001566639627811895</v>
+        <v>-0.0254780964347402</v>
       </c>
       <c r="D65">
-        <v>-0.1156349137095075</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.1198236650954752</v>
+      </c>
+      <c r="E65">
+        <v>0.006754527361462064</v>
+      </c>
+      <c r="F65">
+        <v>-0.02184981917043939</v>
+      </c>
+      <c r="G65">
+        <v>0.04079531204292929</v>
+      </c>
+      <c r="H65">
+        <v>0.03005165536525731</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>0.04400956045828874</v>
+        <v>0.04349280201345559</v>
       </c>
       <c r="C66">
-        <v>-0.05011372408806528</v>
+        <v>-0.06930152424771158</v>
       </c>
       <c r="D66">
-        <v>-0.1136390011377557</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1281822590767503</v>
+      </c>
+      <c r="E66">
+        <v>0.02332701230806679</v>
+      </c>
+      <c r="F66">
+        <v>0.01243574940026699</v>
+      </c>
+      <c r="G66">
+        <v>0.006368638493442515</v>
+      </c>
+      <c r="H66">
+        <v>-0.06149813595221382</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>0.04449152371562083</v>
+        <v>0.03822442143080503</v>
       </c>
       <c r="C67">
-        <v>-0.02606680591245854</v>
+        <v>-0.02680662855965091</v>
       </c>
       <c r="D67">
-        <v>-0.02812556615526934</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.02464266211111666</v>
+      </c>
+      <c r="E67">
+        <v>0.02974818483685196</v>
+      </c>
+      <c r="F67">
+        <v>-0.002408406007959074</v>
+      </c>
+      <c r="G67">
+        <v>0.02974631025978106</v>
+      </c>
+      <c r="H67">
+        <v>-0.04131498104003819</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>0.1703910625579659</v>
+        <v>0.1928682158201169</v>
       </c>
       <c r="C68">
-        <v>0.2554285194993353</v>
+        <v>0.2087335015130445</v>
       </c>
       <c r="D68">
-        <v>0.02273442329032946</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>-0.0156395779103173</v>
+      </c>
+      <c r="E68">
+        <v>0.05435905125052514</v>
+      </c>
+      <c r="F68">
+        <v>-0.02486252221021668</v>
+      </c>
+      <c r="G68">
+        <v>0.009438207999407576</v>
+      </c>
+      <c r="H68">
+        <v>0.009285838943442998</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>0.08427160090976742</v>
+        <v>0.07803504019883489</v>
       </c>
       <c r="C69">
-        <v>-0.08250186644752054</v>
+        <v>-0.09721637518599159</v>
       </c>
       <c r="D69">
-        <v>-0.05384921316415642</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.04705338842158995</v>
+      </c>
+      <c r="E69">
+        <v>0.03107003515766918</v>
+      </c>
+      <c r="F69">
+        <v>-0.002356860576857475</v>
+      </c>
+      <c r="G69">
+        <v>-0.0394139431699226</v>
+      </c>
+      <c r="H69">
+        <v>-0.02344248799954248</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -1671,360 +2511,672 @@
       <c r="D70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:4">
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="F70">
+        <v>0</v>
+      </c>
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>0.1430645776210607</v>
+        <v>0.1770750669158366</v>
       </c>
       <c r="C71">
-        <v>0.2517120326871044</v>
+        <v>0.2205995671871607</v>
       </c>
       <c r="D71">
-        <v>-0.009732976711337368</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>-0.03500945984548266</v>
+      </c>
+      <c r="E71">
+        <v>0.05411928808889153</v>
+      </c>
+      <c r="F71">
+        <v>-0.02202557632705148</v>
+      </c>
+      <c r="G71">
+        <v>-0.03610260259037779</v>
+      </c>
+      <c r="H71">
+        <v>-0.01216736407555571</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>0.09819375406672676</v>
+        <v>0.1016434146503441</v>
       </c>
       <c r="C72">
-        <v>-0.03513592208258088</v>
+        <v>-0.06270561044433307</v>
       </c>
       <c r="D72">
-        <v>-0.09438603494506423</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.09779683721761744</v>
+      </c>
+      <c r="E72">
+        <v>-0.02380551218744383</v>
+      </c>
+      <c r="F72">
+        <v>-0.03369777975673612</v>
+      </c>
+      <c r="G72">
+        <v>-0.02221655553040808</v>
+      </c>
+      <c r="H72">
+        <v>-0.02815189989957325</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>0.3156163567716795</v>
+        <v>0.2665642952396656</v>
       </c>
       <c r="C73">
-        <v>-0.009941665835386254</v>
+        <v>-0.07660876601024534</v>
       </c>
       <c r="D73">
-        <v>-0.2768352431080988</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.2011896852040157</v>
+      </c>
+      <c r="E73">
+        <v>-0.6714787354678337</v>
+      </c>
+      <c r="F73">
+        <v>-0.08827858833267056</v>
+      </c>
+      <c r="G73">
+        <v>0.039209461353516</v>
+      </c>
+      <c r="H73">
+        <v>0.1164068991284647</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>0.1020237557311311</v>
+        <v>0.1016157907922176</v>
       </c>
       <c r="C74">
-        <v>-0.06711136913386639</v>
+        <v>-0.08851325528358137</v>
       </c>
       <c r="D74">
-        <v>-0.02020088542797037</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>0.002166542740145338</v>
+      </c>
+      <c r="E74">
+        <v>0.08451941493364669</v>
+      </c>
+      <c r="F74">
+        <v>-0.04319328858600817</v>
+      </c>
+      <c r="G74">
+        <v>-0.056785304344069</v>
+      </c>
+      <c r="H74">
+        <v>0.05586599123883378</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>0.2422921851670864</v>
+        <v>0.2374073272119196</v>
       </c>
       <c r="C75">
-        <v>-0.1407340942641805</v>
+        <v>-0.1678639333338717</v>
       </c>
       <c r="D75">
-        <v>0.05795135297881674</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>0.104423212542518</v>
+      </c>
+      <c r="E75">
+        <v>0.07484823142238246</v>
+      </c>
+      <c r="F75">
+        <v>0.006652082044280112</v>
+      </c>
+      <c r="G75">
+        <v>-0.08766971887996081</v>
+      </c>
+      <c r="H75">
+        <v>0.1451800517706531</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>0.1245184091097992</v>
+        <v>0.1260400975997005</v>
       </c>
       <c r="C76">
-        <v>-0.08886387729799429</v>
+        <v>-0.1132547728531373</v>
       </c>
       <c r="D76">
-        <v>0.00671013587304285</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>0.02118596790369781</v>
+      </c>
+      <c r="E76">
+        <v>0.1154341660063031</v>
+      </c>
+      <c r="F76">
+        <v>-0.01429746135502809</v>
+      </c>
+      <c r="G76">
+        <v>-0.06108730205452017</v>
+      </c>
+      <c r="H76">
+        <v>0.02135995215026399</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>0.07321022794724188</v>
+        <v>0.06606619070653864</v>
       </c>
       <c r="C77">
-        <v>-0.05511822932203441</v>
+        <v>-0.06788617154300082</v>
       </c>
       <c r="D77">
-        <v>-0.07133839851558074</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1325626165187034</v>
+      </c>
+      <c r="E77">
+        <v>0.1266087087387886</v>
+      </c>
+      <c r="F77">
+        <v>0.2872642130820811</v>
+      </c>
+      <c r="G77">
+        <v>0.04704142610297151</v>
+      </c>
+      <c r="H77">
+        <v>0.2013274033811786</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>0.03574519115095924</v>
+        <v>0.03941843375441169</v>
       </c>
       <c r="C78">
-        <v>-0.04476560152639704</v>
+        <v>-0.0598420346284996</v>
       </c>
       <c r="D78">
-        <v>-0.1106316253693774</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1235497601741447</v>
+      </c>
+      <c r="E78">
+        <v>0.02839217802453832</v>
+      </c>
+      <c r="F78">
+        <v>-0.01967650406742258</v>
+      </c>
+      <c r="G78">
+        <v>-0.03221639124408283</v>
+      </c>
+      <c r="H78">
+        <v>-0.04543654795275743</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.00166127377898653</v>
+        <v>0.04111272185150012</v>
       </c>
       <c r="C79">
-        <v>0.002160661463612508</v>
+        <v>-0.0852524244438785</v>
       </c>
       <c r="D79">
-        <v>-0.01589371745130894</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>0.03007061895483787</v>
+      </c>
+      <c r="E79">
+        <v>0.16778504711954</v>
+      </c>
+      <c r="F79">
+        <v>-0.07865223869193277</v>
+      </c>
+      <c r="G79">
+        <v>-0.535568971800487</v>
+      </c>
+      <c r="H79">
+        <v>0.528110073333183</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>0.0293399693244511</v>
+        <v>0.02455424449448776</v>
       </c>
       <c r="C80">
-        <v>-0.01644420454774239</v>
+        <v>-0.03602045573134598</v>
       </c>
       <c r="D80">
-        <v>-0.02621768516188142</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.03493961190924025</v>
+      </c>
+      <c r="E80">
+        <v>0.01658302693380908</v>
+      </c>
+      <c r="F80">
+        <v>0.04139715067330705</v>
+      </c>
+      <c r="G80">
+        <v>0.04076777947950937</v>
+      </c>
+      <c r="H80">
+        <v>-0.03987285250631227</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>0.1386517267436323</v>
+        <v>0.1313094848363164</v>
       </c>
       <c r="C81">
-        <v>-0.09964669959598847</v>
+        <v>-0.1187668711202276</v>
       </c>
       <c r="D81">
-        <v>0.04858338557849101</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>0.07031443318570715</v>
+      </c>
+      <c r="E81">
+        <v>0.1122656694285588</v>
+      </c>
+      <c r="F81">
+        <v>-0.004891895218117198</v>
+      </c>
+      <c r="G81">
+        <v>-0.05060980790476874</v>
+      </c>
+      <c r="H81">
+        <v>0.05049717189165875</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>0.2803619876906223</v>
+        <v>0.2478161966669818</v>
       </c>
       <c r="C82">
-        <v>-0.2704203394728396</v>
+        <v>-0.2485584241684977</v>
       </c>
       <c r="D82">
-        <v>0.2210031396723842</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>0.2223575674236984</v>
+      </c>
+      <c r="E82">
+        <v>-0.0005940683456617953</v>
+      </c>
+      <c r="F82">
+        <v>-0.03461755854039022</v>
+      </c>
+      <c r="G82">
+        <v>-0.2577953582963137</v>
+      </c>
+      <c r="H82">
+        <v>-0.4515455437460149</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>0.02838424479516958</v>
+        <v>0.02307698012207233</v>
       </c>
       <c r="C83">
-        <v>-0.0463150242761728</v>
+        <v>-0.05035802062616426</v>
       </c>
       <c r="D83">
-        <v>-0.05141590800604304</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.05296176241512159</v>
+      </c>
+      <c r="E83">
+        <v>0.009772995099382275</v>
+      </c>
+      <c r="F83">
+        <v>0.02393882562711724</v>
+      </c>
+      <c r="G83">
+        <v>-0.001430130250071495</v>
+      </c>
+      <c r="H83">
+        <v>-0.0331421058601477</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>0</v>
+        <v>0.0008047998816240113</v>
       </c>
       <c r="C84">
-        <v>0</v>
+        <v>-0.004030463784315378</v>
       </c>
       <c r="D84">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.01063461677247522</v>
+      </c>
+      <c r="E84">
+        <v>0.01262318263071158</v>
+      </c>
+      <c r="F84">
+        <v>-0.0022303006845343</v>
+      </c>
+      <c r="G84">
+        <v>0.008076104849730403</v>
+      </c>
+      <c r="H84">
+        <v>-0.00415233407081804</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>0.1800835706168868</v>
+        <v>0.162913125319494</v>
       </c>
       <c r="C85">
-        <v>-0.09870826175285147</v>
+        <v>-0.1317484277032128</v>
       </c>
       <c r="D85">
-        <v>0.04072510887179328</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>0.07433684318072019</v>
+      </c>
+      <c r="E85">
+        <v>0.04340370382396776</v>
+      </c>
+      <c r="F85">
+        <v>-0.03569465868175665</v>
+      </c>
+      <c r="G85">
+        <v>-0.08838419460270497</v>
+      </c>
+      <c r="H85">
+        <v>0.1216693898683505</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>0.01253029443363832</v>
+        <v>0.01901249576210426</v>
       </c>
       <c r="C86">
-        <v>-0.01943379894257962</v>
+        <v>-0.02167049043201472</v>
       </c>
       <c r="D86">
-        <v>-0.1331709756953352</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.1227905982319195</v>
+      </c>
+      <c r="E86">
+        <v>0.01650602082067004</v>
+      </c>
+      <c r="F86">
+        <v>0.009488025483571617</v>
+      </c>
+      <c r="G86">
+        <v>-0.03823681936081027</v>
+      </c>
+      <c r="H86">
+        <v>-0.06988535076755832</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>0.02549934580492554</v>
+        <v>0.03171159537398209</v>
       </c>
       <c r="C87">
-        <v>-0.000894573083880232</v>
+        <v>-0.02504267722673582</v>
       </c>
       <c r="D87">
-        <v>-0.08710812521036329</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.1249957899515414</v>
+      </c>
+      <c r="E87">
+        <v>0.08778138326157396</v>
+      </c>
+      <c r="F87">
+        <v>0.01933285597268875</v>
+      </c>
+      <c r="G87">
+        <v>0.005294703188832939</v>
+      </c>
+      <c r="H87">
+        <v>-0.03524397724950952</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>0.08368155777045695</v>
+        <v>0.07536077973723507</v>
       </c>
       <c r="C88">
-        <v>-0.0440765518620523</v>
+        <v>-0.05775072488546177</v>
       </c>
       <c r="D88">
-        <v>-0.04741532420626045</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.02734927304638474</v>
+      </c>
+      <c r="E88">
+        <v>0.0292673524038257</v>
+      </c>
+      <c r="F88">
+        <v>-0.005081376740349631</v>
+      </c>
+      <c r="G88">
+        <v>0.009570814625142855</v>
+      </c>
+      <c r="H88">
+        <v>-0.02048829328602445</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>0.2073882392334024</v>
+        <v>0.2648268953267756</v>
       </c>
       <c r="C89">
-        <v>0.3529575841102279</v>
+        <v>0.354900803839082</v>
       </c>
       <c r="D89">
-        <v>0.0556467305334461</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.01673816372826997</v>
+      </c>
+      <c r="E89">
+        <v>0.06052086114550129</v>
+      </c>
+      <c r="F89">
+        <v>0.04754489333447922</v>
+      </c>
+      <c r="G89">
+        <v>-0.03532515398310593</v>
+      </c>
+      <c r="H89">
+        <v>-0.06419016823111175</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>0.2018096108510238</v>
+        <v>0.2336917911761895</v>
       </c>
       <c r="C90">
-        <v>0.2959559961043152</v>
+        <v>0.2645309181096852</v>
       </c>
       <c r="D90">
-        <v>0.05772141767968624</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>-0.005142092531638918</v>
+      </c>
+      <c r="E90">
+        <v>0.05624842716471946</v>
+      </c>
+      <c r="F90">
+        <v>-0.003088338010874358</v>
+      </c>
+      <c r="G90">
+        <v>0.03631284684823481</v>
+      </c>
+      <c r="H90">
+        <v>-0.04867329176740352</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>0.1774434039885822</v>
+        <v>0.1673951715557808</v>
       </c>
       <c r="C91">
-        <v>-0.1338566142377578</v>
+        <v>-0.1591118120430839</v>
       </c>
       <c r="D91">
-        <v>0.05921435697769245</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.08503154139316706</v>
+      </c>
+      <c r="E91">
+        <v>0.09678772774868345</v>
+      </c>
+      <c r="F91">
+        <v>-0.01788242491555231</v>
+      </c>
+      <c r="G91">
+        <v>-0.07914675212934762</v>
+      </c>
+      <c r="H91">
+        <v>0.135744691279543</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>0.1676582960178986</v>
+        <v>0.210804771294631</v>
       </c>
       <c r="C92">
-        <v>0.2824380812106423</v>
+        <v>0.2765596234981866</v>
       </c>
       <c r="D92">
-        <v>0.01652696153283941</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>-0.01090798994020474</v>
+      </c>
+      <c r="E92">
+        <v>0.08784220457707405</v>
+      </c>
+      <c r="F92">
+        <v>0.03373407304674695</v>
+      </c>
+      <c r="G92">
+        <v>-0.002596846365295309</v>
+      </c>
+      <c r="H92">
+        <v>-0.03162289215739562</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>0.232285573135274</v>
+        <v>0.2576519453559208</v>
       </c>
       <c r="C93">
-        <v>0.3211664291836022</v>
+        <v>0.2773703480407104</v>
       </c>
       <c r="D93">
-        <v>0.03647939430955228</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.01622357043642535</v>
+      </c>
+      <c r="E93">
+        <v>0.02737970616260122</v>
+      </c>
+      <c r="F93">
+        <v>-0.03294362924538484</v>
+      </c>
+      <c r="G93">
+        <v>-0.01090916806320182</v>
+      </c>
+      <c r="H93">
+        <v>-0.006134111088305108</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>0.3849260704126655</v>
+        <v>0.3353326511068199</v>
       </c>
       <c r="C94">
-        <v>-0.2647435550960215</v>
+        <v>-0.2611468575890649</v>
       </c>
       <c r="D94">
-        <v>0.4591032891714829</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>0.4457947845287901</v>
+      </c>
+      <c r="E94">
+        <v>0.1064388089570237</v>
+      </c>
+      <c r="F94">
+        <v>0.0322908651873683</v>
+      </c>
+      <c r="G94">
+        <v>0.6046144587765862</v>
+      </c>
+      <c r="H94">
+        <v>0.03234065726962391</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>0.08435529528281688</v>
+        <v>0.07356745667278987</v>
       </c>
       <c r="C95">
-        <v>-0.06664412423890252</v>
+        <v>-0.05885755842798802</v>
       </c>
       <c r="D95">
-        <v>-0.1255757548840903</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09350305468530773</v>
+      </c>
+      <c r="E95">
+        <v>-0.09068893845334673</v>
+      </c>
+      <c r="F95">
+        <v>0.9081712905356505</v>
+      </c>
+      <c r="G95">
+        <v>-0.0301292031462634</v>
+      </c>
+      <c r="H95">
+        <v>0.0556986218499786</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,10 +3187,22 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2049,24 +3213,48 @@
       <c r="D97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:4">
+      <c r="E97">
+        <v>0</v>
+      </c>
+      <c r="F97">
+        <v>0</v>
+      </c>
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>0.1794430069943397</v>
+        <v>0.1669718427026454</v>
       </c>
       <c r="C98">
-        <v>-0.0138575016727078</v>
+        <v>-0.0538342711145315</v>
       </c>
       <c r="D98">
-        <v>-0.1487761801853419</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.1342137187089872</v>
+      </c>
+      <c r="E98">
+        <v>-0.2954172260504438</v>
+      </c>
+      <c r="F98">
+        <v>-0.08310555120626435</v>
+      </c>
+      <c r="G98">
+        <v>-0.02891231898583962</v>
+      </c>
+      <c r="H98">
+        <v>0.01947535533016513</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2077,10 +3265,22 @@
       <c r="D99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:4">
+      <c r="E99">
+        <v>0</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,38 +3291,74 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>0.002818471305472844</v>
+        <v>0.006418997675098271</v>
       </c>
       <c r="C101">
-        <v>-0.01493216296572623</v>
+        <v>-0.02118405341704446</v>
       </c>
       <c r="D101">
-        <v>-0.06161735174547688</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.07724072494662471</v>
+      </c>
+      <c r="E101">
+        <v>0.04487655940480995</v>
+      </c>
+      <c r="F101">
+        <v>0.0004077857703783663</v>
+      </c>
+      <c r="G101">
+        <v>-0.02150525423927705</v>
+      </c>
+      <c r="H101">
+        <v>-0.09879085612493305</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
-        <v>0.1249278799031552</v>
+        <v>0.1118125034182533</v>
       </c>
       <c r="C102">
-        <v>-0.1191114510022665</v>
+        <v>-0.1188610747875615</v>
       </c>
       <c r="D102">
-        <v>0.03165248550333608</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4">
+        <v>0.04990994503953201</v>
+      </c>
+      <c r="E102">
+        <v>0.02992060565314591</v>
+      </c>
+      <c r="F102">
+        <v>0.02012243558326855</v>
+      </c>
+      <c r="G102">
+        <v>-0.05899323684525505</v>
+      </c>
+      <c r="H102">
+        <v>-0.008671968587478677</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
